--- a/Robot Procesamiento TERPEL/Config/Config.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28425" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Variable</t>
   </si>
@@ -53,22 +53,31 @@
     <t>Carpeta de descarga de los archivos PDF de la ZFI081</t>
   </si>
   <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Archivos\UiTree.xml</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Archivos\UiTree.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\PDF</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Proveedores para exclusión y retenciones.xlsx</t>
-  </si>
-  <si>
     <t>Archivos de proveedores exclusivos y retenciones.</t>
   </si>
   <si>
     <t>strProveedoresRetenciones</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\ZMM023\ZMM023TERPEL.xlsx</t>
+  </si>
+  <si>
+    <t>strZMM023</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Archivos\UiTree.xml</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Archivos\UiTree.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\PDF</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Proveedores para exclusión y retenciones.xlsx</t>
+  </si>
+  <si>
+    <t>ArchivoExcel ZMM023</t>
   </si>
 </sst>
 </file>
@@ -386,18 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="89.7109375" customWidth="1"/>
+    <col min="2" max="2" width="101.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,48 +417,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Robot Procesamiento TERPEL/Config/Config.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>strProveedoresRetenciones</t>
   </si>
   <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\ZMM023\ZMM023TERPEL.xlsx</t>
-  </si>
-  <si>
     <t>strZMM023</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>ArchivoExcel ZMM023</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\ZMM023\ZMM023.xlsx</t>
   </si>
 </sst>
 </file>
@@ -398,15 +398,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="101.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,59 +417,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
